--- a/results/mp/logistic/home-spam/confidence/84/stop-words-topk-0.5/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/home-spam/confidence/84/stop-words-topk-0.5/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="70">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,64 +43,73 @@
     <t>return</t>
   </si>
   <si>
+    <t>stopped</t>
+  </si>
+  <si>
+    <t>poor</t>
+  </si>
+  <si>
     <t>returned</t>
   </si>
   <si>
     <t>waste</t>
   </si>
   <si>
+    <t>broke</t>
+  </si>
+  <si>
     <t>useless</t>
   </si>
   <si>
-    <t>stopped</t>
+    <t>filters</t>
   </si>
   <si>
     <t>junk</t>
   </si>
   <si>
-    <t>poor</t>
-  </si>
-  <si>
-    <t>broke</t>
+    <t>thin</t>
+  </si>
+  <si>
+    <t>difficult</t>
   </si>
   <si>
     <t>maybe</t>
   </si>
   <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>thin</t>
+    <t>ok</t>
   </si>
   <si>
     <t>months</t>
   </si>
   <si>
-    <t>ok</t>
+    <t>disappointed</t>
+  </si>
+  <si>
+    <t>cheap</t>
   </si>
   <si>
     <t>however</t>
   </si>
   <si>
-    <t>cheap</t>
-  </si>
-  <si>
-    <t>disappointed</t>
-  </si>
-  <si>
     <t>plastic</t>
   </si>
   <si>
     <t>grind</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>lid</t>
   </si>
   <si>
+    <t>broken</t>
+  </si>
+  <si>
     <t>filter</t>
   </si>
   <si>
-    <t>broken</t>
+    <t>okay</t>
   </si>
   <si>
     <t>received</t>
@@ -109,49 +118,52 @@
     <t>back</t>
   </si>
   <si>
-    <t>1</t>
+    <t>machine</t>
+  </si>
+  <si>
+    <t>piece</t>
   </si>
   <si>
     <t>worked</t>
   </si>
   <si>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>hold</t>
+  </si>
+  <si>
     <t>work</t>
   </si>
   <si>
-    <t>way</t>
+    <t>fit</t>
+  </si>
+  <si>
+    <t>even</t>
   </si>
   <si>
     <t>small</t>
   </si>
   <si>
-    <t>hard</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
-    <t>fit</t>
-  </si>
-  <si>
     <t>money</t>
   </si>
   <si>
-    <t>water</t>
-  </si>
-  <si>
-    <t>first</t>
+    <t>item</t>
   </si>
   <si>
     <t>would</t>
   </si>
   <si>
+    <t>get</t>
+  </si>
+  <si>
     <t>product</t>
   </si>
   <si>
-    <t>get</t>
-  </si>
-  <si>
-    <t>item</t>
+    <t>buy</t>
   </si>
   <si>
     <t>use</t>
@@ -187,22 +199,25 @@
     <t>perfectly</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>highly</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
     <t>easy</t>
   </si>
   <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
     <t>works</t>
-  </si>
-  <si>
-    <t>well</t>
   </si>
   <si>
     <t>good</t>
@@ -566,7 +581,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q42"/>
+  <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -574,10 +589,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="J1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -635,13 +650,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9469026548672567</v>
+        <v>0.9557522123893806</v>
       </c>
       <c r="C3">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D3">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -653,19 +668,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="K3">
-        <v>0.828125</v>
+        <v>0.859375</v>
       </c>
       <c r="L3">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="M3">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -677,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -685,13 +700,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9191919191919192</v>
+        <v>0.9433962264150944</v>
       </c>
       <c r="C4">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="D4">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -703,19 +718,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="K4">
-        <v>0.7391304347826086</v>
+        <v>0.7826086956521739</v>
       </c>
       <c r="L4">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M4">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -727,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -735,13 +750,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.864406779661017</v>
+        <v>0.9</v>
       </c>
       <c r="C5">
-        <v>102</v>
+        <v>45</v>
       </c>
       <c r="D5">
-        <v>102</v>
+        <v>45</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -753,19 +768,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="K5">
-        <v>0.7322033898305085</v>
+        <v>0.7084745762711865</v>
       </c>
       <c r="L5">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="M5">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -777,7 +792,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>79</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -785,13 +800,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.85</v>
+        <v>0.898989898989899</v>
       </c>
       <c r="C6">
-        <v>34</v>
+        <v>89</v>
       </c>
       <c r="D6">
-        <v>34</v>
+        <v>89</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -803,19 +818,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="K6">
-        <v>0.7204301075268817</v>
+        <v>0.6881720430107527</v>
       </c>
       <c r="L6">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="M6">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -827,7 +842,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -835,13 +850,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8490566037735849</v>
+        <v>0.8983050847457628</v>
       </c>
       <c r="C7">
-        <v>45</v>
+        <v>106</v>
       </c>
       <c r="D7">
-        <v>45</v>
+        <v>106</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -853,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="K7">
-        <v>0.6656346749226006</v>
+        <v>0.6563467492260062</v>
       </c>
       <c r="L7">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="M7">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -877,7 +892,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>216</v>
+        <v>222</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -885,13 +900,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8461538461538461</v>
+        <v>0.8108108108108109</v>
       </c>
       <c r="C8">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="D8">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -903,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="K8">
-        <v>0.6103896103896104</v>
+        <v>0.5324675324675324</v>
       </c>
       <c r="L8">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="M8">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -927,7 +942,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -935,13 +950,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.82</v>
+        <v>0.775</v>
       </c>
       <c r="C9">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="D9">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -956,16 +971,16 @@
         <v>9</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="K9">
-        <v>0.5887445887445888</v>
+        <v>0.5281385281385281</v>
       </c>
       <c r="L9">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="M9">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -977,7 +992,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>95</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -985,13 +1000,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.8054054054054054</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="C10">
-        <v>149</v>
+        <v>34</v>
       </c>
       <c r="D10">
-        <v>149</v>
+        <v>34</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1003,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="K10">
         <v>0.5</v>
@@ -1035,7 +1050,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7358490566037735</v>
+        <v>0.75</v>
       </c>
       <c r="C11">
         <v>39</v>
@@ -1053,31 +1068,31 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="K11">
-        <v>0.3783783783783784</v>
+        <v>0.367816091954023</v>
       </c>
       <c r="L11">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="M11">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="N11">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11">
-        <v>69</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1085,13 +1100,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7352941176470589</v>
+        <v>0.7397260273972602</v>
       </c>
       <c r="C12">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D12">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1103,31 +1118,31 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="K12">
-        <v>0.3333333333333333</v>
+        <v>0.3243243243243243</v>
       </c>
       <c r="L12">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="M12">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="N12">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O12">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>116</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1135,13 +1150,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.684931506849315</v>
+        <v>0.6764705882352942</v>
       </c>
       <c r="C13">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D13">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1153,31 +1168,31 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="K13">
-        <v>0.297427652733119</v>
+        <v>0.2993579454253611</v>
       </c>
       <c r="L13">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="M13">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="N13">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O13">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1185,13 +1200,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6132075471698113</v>
+        <v>0.6415094339622641</v>
       </c>
       <c r="C14">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="D14">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1203,19 +1218,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="K14">
-        <v>0.1506849315068493</v>
+        <v>0.152054794520548</v>
       </c>
       <c r="L14">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M14">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1227,7 +1242,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1235,13 +1250,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5925925925925926</v>
+        <v>0.6370370370370371</v>
       </c>
       <c r="C15">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="D15">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1253,31 +1268,31 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="K15">
-        <v>0.0492676431424767</v>
+        <v>0.07125307125307126</v>
       </c>
       <c r="L15">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="M15">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="N15">
-        <v>0.9</v>
+        <v>0.97</v>
       </c>
       <c r="O15">
-        <v>0.09999999999999998</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P15" t="b">
         <v>1</v>
       </c>
       <c r="Q15">
-        <v>714</v>
+        <v>378</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1285,13 +1300,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5897435897435898</v>
+        <v>0.6226415094339622</v>
       </c>
       <c r="C16">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="D16">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1303,31 +1318,31 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="K16">
-        <v>0.04487179487179487</v>
+        <v>0.04645161290322581</v>
       </c>
       <c r="L16">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M16">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="N16">
-        <v>0.95</v>
+        <v>0.84</v>
       </c>
       <c r="O16">
-        <v>0.05000000000000004</v>
+        <v>0.16</v>
       </c>
       <c r="P16" t="b">
         <v>1</v>
       </c>
       <c r="Q16">
-        <v>745</v>
+        <v>739</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1335,13 +1350,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5897435897435898</v>
+        <v>0.6046511627906976</v>
       </c>
       <c r="C17">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="D17">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1353,31 +1368,31 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="K17">
-        <v>0.03559870550161812</v>
+        <v>0.044</v>
       </c>
       <c r="L17">
         <v>33</v>
       </c>
       <c r="M17">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="N17">
-        <v>0.9399999999999999</v>
+        <v>0.87</v>
       </c>
       <c r="O17">
-        <v>0.06000000000000005</v>
+        <v>0.13</v>
       </c>
       <c r="P17" t="b">
         <v>1</v>
       </c>
       <c r="Q17">
-        <v>894</v>
+        <v>717</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1385,13 +1400,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5658914728682171</v>
+        <v>0.5692307692307692</v>
       </c>
       <c r="C18">
-        <v>73</v>
+        <v>111</v>
       </c>
       <c r="D18">
-        <v>73</v>
+        <v>111</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1403,7 +1418,31 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>56</v>
+        <v>84</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K18">
+        <v>0.03463203463203463</v>
+      </c>
+      <c r="L18">
+        <v>32</v>
+      </c>
+      <c r="M18">
+        <v>37</v>
+      </c>
+      <c r="N18">
+        <v>0.86</v>
+      </c>
+      <c r="O18">
+        <v>0.14</v>
+      </c>
+      <c r="P18" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q18">
+        <v>892</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1411,25 +1450,25 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5510204081632653</v>
+        <v>0.5641025641025641</v>
       </c>
       <c r="C19">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="D19">
-        <v>82</v>
+        <v>44</v>
       </c>
       <c r="E19">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19">
-        <v>66</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1437,13 +1476,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5211267605633803</v>
+        <v>0.5608108108108109</v>
       </c>
       <c r="C20">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="D20">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1455,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>34</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1463,13 +1502,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5132743362831859</v>
+        <v>0.5352112676056338</v>
       </c>
       <c r="C21">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="D21">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1481,7 +1520,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>55</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1489,13 +1528,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.4942528735632184</v>
+        <v>0.5339805825242718</v>
       </c>
       <c r="C22">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="D22">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1507,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1515,13 +1554,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.4888888888888889</v>
+        <v>0.5221238938053098</v>
       </c>
       <c r="C23">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="D23">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1533,7 +1572,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1541,13 +1580,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.4807692307692308</v>
+        <v>0.5111111111111111</v>
       </c>
       <c r="C24">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D24">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1559,7 +1598,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>54</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1567,13 +1606,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.4743589743589743</v>
+        <v>0.5057471264367817</v>
       </c>
       <c r="C25">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="D25">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1585,7 +1624,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>82</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1593,13 +1632,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.4660194174757282</v>
+        <v>0.4393939393939394</v>
       </c>
       <c r="C26">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="D26">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1611,7 +1650,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>55</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1619,13 +1658,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.3519553072625698</v>
+        <v>0.4230769230769231</v>
       </c>
       <c r="C27">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="D27">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1637,7 +1676,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>116</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1645,25 +1684,25 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.2513513513513513</v>
+        <v>0.4230769230769231</v>
       </c>
       <c r="C28">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="D28">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="E28">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F28">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28">
-        <v>277</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1671,13 +1710,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.2185430463576159</v>
+        <v>0.3608247422680412</v>
       </c>
       <c r="C29">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D29">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1689,7 +1728,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>118</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1697,13 +1736,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.217687074829932</v>
+        <v>0.303030303030303</v>
       </c>
       <c r="C30">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="D30">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1715,7 +1754,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>230</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1723,13 +1762,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.2142857142857143</v>
+        <v>0.2849162011173184</v>
       </c>
       <c r="C31">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="D31">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1741,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>165</v>
+        <v>128</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -1749,13 +1788,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.1720430107526882</v>
+        <v>0.2476190476190476</v>
       </c>
       <c r="C32">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="D32">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1767,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1775,7 +1814,7 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.17</v>
+        <v>0.2344827586206897</v>
       </c>
       <c r="C33">
         <v>34</v>
@@ -1793,7 +1832,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>166</v>
+        <v>111</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1801,25 +1840,25 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.162280701754386</v>
+        <v>0.2318059299191375</v>
       </c>
       <c r="C34">
-        <v>37</v>
+        <v>86</v>
       </c>
       <c r="D34">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="E34">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F34">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H34">
-        <v>191</v>
+        <v>285</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1827,13 +1866,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.1593406593406593</v>
+        <v>0.205</v>
       </c>
       <c r="C35">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="D35">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -1845,7 +1884,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>153</v>
+        <v>159</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1853,13 +1892,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.1464646464646465</v>
+        <v>0.1910112359550562</v>
       </c>
       <c r="C36">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D36">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -1871,7 +1910,7 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>169</v>
+        <v>144</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1879,13 +1918,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.1251700680272109</v>
+        <v>0.1768707482993197</v>
       </c>
       <c r="C37">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="D37">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -1897,7 +1936,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>643</v>
+        <v>242</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1905,25 +1944,25 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.108355091383812</v>
+        <v>0.1720430107526882</v>
       </c>
       <c r="C38">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="D38">
-        <v>84</v>
+        <v>32</v>
       </c>
       <c r="E38">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F38">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38">
-        <v>683</v>
+        <v>154</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1931,13 +1970,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.1024390243902439</v>
+        <v>0.1572052401746725</v>
       </c>
       <c r="C39">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D39">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -1949,7 +1988,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>368</v>
+        <v>193</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1957,13 +1996,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.09698996655518395</v>
+        <v>0.1438127090301003</v>
       </c>
       <c r="C40">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="D40">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -1975,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>270</v>
+        <v>256</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1983,25 +2022,25 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.0424978317432784</v>
+        <v>0.1362397820163488</v>
       </c>
       <c r="C41">
-        <v>49</v>
+        <v>100</v>
       </c>
       <c r="D41">
-        <v>53</v>
+        <v>101</v>
       </c>
       <c r="E41">
-        <v>0.08</v>
+        <v>0.01</v>
       </c>
       <c r="F41">
-        <v>0.92</v>
+        <v>0.99</v>
       </c>
       <c r="G41" t="b">
         <v>1</v>
       </c>
       <c r="H41">
-        <v>1104</v>
+        <v>634</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2009,25 +2048,129 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.03393025447690858</v>
+        <v>0.124390243902439</v>
       </c>
       <c r="C42">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="D42">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E42">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="F42">
-        <v>0.77</v>
+        <v>1</v>
       </c>
       <c r="G42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42">
-        <v>1025</v>
+        <v>359</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43">
+        <v>0.1148825065274151</v>
+      </c>
+      <c r="C43">
+        <v>88</v>
+      </c>
+      <c r="D43">
+        <v>89</v>
+      </c>
+      <c r="E43">
+        <v>0.01</v>
+      </c>
+      <c r="F43">
+        <v>0.99</v>
+      </c>
+      <c r="G43" t="b">
+        <v>1</v>
+      </c>
+      <c r="H43">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44">
+        <v>0.07614213197969544</v>
+      </c>
+      <c r="C44">
+        <v>30</v>
+      </c>
+      <c r="D44">
+        <v>30</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44" t="b">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45">
+        <v>0.05327510917030567</v>
+      </c>
+      <c r="C45">
+        <v>61</v>
+      </c>
+      <c r="D45">
+        <v>73</v>
+      </c>
+      <c r="E45">
+        <v>0.16</v>
+      </c>
+      <c r="F45">
+        <v>0.84</v>
+      </c>
+      <c r="G45" t="b">
+        <v>1</v>
+      </c>
+      <c r="H45">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46">
+        <v>0.02743614001892148</v>
+      </c>
+      <c r="C46">
+        <v>29</v>
+      </c>
+      <c r="D46">
+        <v>44</v>
+      </c>
+      <c r="E46">
+        <v>0.34</v>
+      </c>
+      <c r="F46">
+        <v>0.6599999999999999</v>
+      </c>
+      <c r="G46" t="b">
+        <v>1</v>
+      </c>
+      <c r="H46">
+        <v>1028</v>
       </c>
     </row>
   </sheetData>
